--- a/Test Data Driven/AI-Generated/TC9-Configure Web Services and Verify Home Page.xlsx
+++ b/Test Data Driven/AI-Generated/TC9-Configure Web Services and Verify Home Page.xlsx
@@ -451,9 +451,9 @@
     <col width="46" customWidth="1" min="3" max="3"/>
     <col width="35" customWidth="1" min="4" max="4"/>
     <col width="37" customWidth="1" min="5" max="5"/>
-    <col width="37" customWidth="1" min="6" max="6"/>
-    <col width="27" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
+    <col width="44" customWidth="1" min="6" max="6"/>
+    <col width="34" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,17 +484,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>link_execution_internalRoleLinkName</t>
+          <t>link_organizationLink_internalRoleLinkName</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>link_execution_project_id</t>
+          <t>link_organizationLink_project_id</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>link_execution_team_id</t>
+          <t>link_organizationLink_team_id</t>
         </is>
       </c>
     </row>
